--- a/resources/keyview_filter/Simple meal planner1.xlsx
+++ b/resources/keyview_filter/Simple meal planner1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{53AAF038-D6CC-466D-915E-3C9EFED97498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A64168F-4E03-4098-A971-0493A54A27EF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C3D44-CAD0-4334-A820-537CCF0C24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28845" yWindow="-1110" windowWidth="24435" windowHeight="14970" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1410" windowWidth="25440" windowHeight="15390" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Meal Planner 1" sheetId="36" r:id="rId1"/>
@@ -909,10 +909,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -1438,11 +1434,9 @@
     <v>5</v>
     <v>349.67</v>
     <v>241.51</v>
-    <v>0.93169999999999997</v>
-    <v>1.36</v>
-    <v>-4.3290000000000001E-4</v>
-    <v>5.3810000000000004E-3</v>
-    <v>-0.11</v>
+    <v>0.92630000000000001</v>
+    <v>3.4950000000000001</v>
+    <v>1.2643999999999999E-2</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
     <v>181000</v>
@@ -1450,26 +1444,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>255.12</v>
+    <v>281.12</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44756.842540856247</v>
+    <v>44771.622627673438</v>
     <v>4</v>
-    <v>245.94</v>
-    <v>1900272704640</v>
+    <v>276.63</v>
+    <v>2005875000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>250.88</v>
-    <v>26.366599999999998</v>
-    <v>252.72</v>
-    <v>254.08</v>
-    <v>253.97</v>
-    <v>7479033000</v>
+    <v>277.76</v>
+    <v>28.661000000000001</v>
+    <v>276.41000000000003</v>
+    <v>279.90499999999997</v>
+    <v>7464000000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>24340317</v>
-    <v>27871166</v>
+    <v>9397872</v>
+    <v>26656566</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2161,11 +2154,9 @@
     <v>5</v>
     <v>6.58</v>
     <v>3.03</v>
-    <v>2.1013999999999999</v>
-    <v>-0.02</v>
-    <v>3.1649999999999998E-3</v>
-    <v>-6.2890000000000003E-3</v>
-    <v>0.01</v>
+    <v>2.0400999999999998</v>
+    <v>0.105</v>
+    <v>3.1531999999999998E-2</v>
     <v>USD</v>
     <v>Micro Focus International PLC is a United Kingdom-based global infrastructure software technology company. The Company serves a central role in core strategic and operational functions, such as testing, monitoring, delivery, analysis, engagement, security and compliance for its customers. It is focused to help organizations run and transform their business. Its solutions include: Enterprise DevOps, Hybrid information management (IT) management, Predictive Analytics, and Security, Risk &amp; Governance. Its product Portfolio contains approximately 300 products; both long-standing and software products that are designed to support customers and the products are grouped under five groups, such as Application Modernization &amp; Connectivity (AMC), Application Delivery Management (ADM), IT Operations Management (ITOM), Security and Information Management &amp; Governance (IM&amp;G).</v>
     <v>11355</v>
@@ -2173,25 +2164,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>The Lawn, 22/30 Old Bath Road, NEWBURY, BERKSHIRE, RG14 1QN GB</v>
-    <v>3.165</v>
+    <v>3.4350000000000001</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44756.833523703128</v>
+    <v>44771.622458159378</v>
     <v>112</v>
-    <v>3.07</v>
-    <v>1076174000</v>
+    <v>3.3650000000000002</v>
+    <v>1128839000</v>
     <v>MICRO FOCUS INTERNATIONAL PLC</v>
     <v>MICRO FOCUS INTERNATIONAL PLC</v>
-    <v>3.15</v>
+    <v>3.38</v>
     <v>0</v>
-    <v>3.18</v>
-    <v>3.16</v>
-    <v>3.17</v>
+    <v>3.33</v>
+    <v>3.4350000000000001</v>
     <v>335989900</v>
     <v>MFGP</v>
     <v>MICRO FOCUS INTERNATIONAL PLC (XNYS:MFGP)</v>
-    <v>407617</v>
-    <v>491834</v>
+    <v>50380</v>
+    <v>424508</v>
     <v>2004</v>
   </rv>
   <rv s="4">
@@ -3539,9 +3529,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3563,7 +3551,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3677,9 +3664,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -3700,7 +3685,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -3714,7 +3698,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="3">
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3725,16 +3709,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3828,7 +3809,7 @@
       <v t="s">Image</v>
       <v t="s">Description</v>
     </a>
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -3839,16 +3820,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -3920,19 +3898,13 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="5">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="6">
       <v>Powered by Refinitiv</v>
@@ -4235,9 +4207,6 @@
       <v>9</v>
       <v>10</v>
       <v>5</v>
-      <v>1</v>
-      <v>1</v>
-      <v>6</v>
     </spb>
     <spb s="7">
       <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
@@ -4418,9 +4387,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -4428,9 +4394,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -4567,9 +4530,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="CPI" t="spb"/>
@@ -4937,7 +4897,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E04814E-E008-344A-B452-308A5F52EA06}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5101,9 +5061,6 @@
   <mergeCells count="1">
     <mergeCell ref="C2:I2"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weekly Meal Planner" prompt="_x000a_Enter your meal plans for Breakfast, Lunch, Dinner, and Snacks for each day of the week." sqref="A1" xr:uid="{89091209-2143-4E48-B3D9-181FC42A1597}"/>
-  </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -5114,7 +5071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E23CBD9-D91C-3441-9395-DF73B0537417}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5252,7 +5209,7 @@
     <mergeCell ref="B4:F4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weekly Meal Planner" prompt="_x000a_Enter your meal plans for Breakfast, Lunch, Dinner, and Snacks for each day of the week." sqref="A1:A2" xr:uid="{BC7D9093-0FE4-0940-BC4F-289861FB598E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Weekly Meal Planner" prompt="_x000a_Enter your meal plans for Breakfast, Lunch, Dinner, and Snacks for each day of the week." sqref="A2" xr:uid="{BC7D9093-0FE4-0940-BC4F-289861FB598E}"/>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -5475,7 +5432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ECC068-CA11-4B4A-A0E0-0ABE082B5CF7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5516,6 +5473,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -5736,39 +5711,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{919EC172-0D5C-443D-B912-0AA64B8E2868}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D2CAAB-F5D6-4BB2-AED8-BE3D49D1FE65}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5791,9 +5737,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D2CAAB-F5D6-4BB2-AED8-BE3D49D1FE65}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{919EC172-0D5C-443D-B912-0AA64B8E2868}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/resources/keyview_filter/Simple meal planner1.xlsx
+++ b/resources/keyview_filter/Simple meal planner1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292C3D44-CAD0-4334-A820-537CCF0C24B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02418AE-3B32-4DCC-A935-E67C0D66C0FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1410" windowWidth="25440" windowHeight="15390" tabRatio="791" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29715" yWindow="915" windowWidth="21600" windowHeight="11325" tabRatio="791" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Meal Planner 1" sheetId="36" r:id="rId1"/>
@@ -402,53 +402,40 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,82 +444,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1225,16 +1206,17 @@
     <v t="s">Hawaii-Aleutian Time Zone</v>
     <v t="s">Samoa Time Zone</v>
   </a>
-  <a r="4">
+  <a r="2">
     <v t="r">135</v>
     <v t="r">136</v>
-    <v t="r">137</v>
-    <v t="r">138</v>
   </a>
-  <a r="1">
-    <v t="s">English</v>
+  <a r="2">
+    <v t="s">Canadian French</v>
+    <v t="s">Canadian English</v>
   </a>
-  <a r="150">
+  <a r="13">
+    <v t="r">155</v>
+    <v t="r">156</v>
     <v t="r">157</v>
     <v t="r">158</v>
     <v t="r">159</v>
@@ -1246,156 +1228,20 @@
     <v t="r">165</v>
     <v t="r">166</v>
     <v t="r">167</v>
-    <v t="r">168</v>
-    <v t="r">169</v>
-    <v t="r">170</v>
-    <v t="r">171</v>
-    <v t="r">172</v>
-    <v t="r">173</v>
-    <v t="r">174</v>
-    <v t="r">175</v>
-    <v t="r">176</v>
-    <v t="r">177</v>
-    <v t="r">178</v>
-    <v t="r">179</v>
-    <v t="r">180</v>
-    <v t="r">181</v>
-    <v t="r">182</v>
-    <v t="r">183</v>
-    <v t="r">184</v>
-    <v t="r">185</v>
-    <v t="r">186</v>
-    <v t="r">187</v>
-    <v t="r">188</v>
-    <v t="r">189</v>
-    <v t="r">190</v>
-    <v t="r">191</v>
-    <v t="r">192</v>
-    <v t="r">193</v>
-    <v t="r">194</v>
-    <v t="r">195</v>
-    <v t="r">196</v>
-    <v t="r">197</v>
-    <v t="r">198</v>
-    <v t="r">199</v>
-    <v t="r">200</v>
-    <v t="r">201</v>
-    <v t="r">202</v>
-    <v t="r">203</v>
-    <v t="r">204</v>
-    <v t="r">205</v>
-    <v t="r">206</v>
-    <v t="r">207</v>
-    <v t="r">208</v>
-    <v t="r">209</v>
-    <v t="r">210</v>
-    <v t="r">211</v>
-    <v t="r">212</v>
-    <v t="r">213</v>
-    <v t="r">214</v>
-    <v t="r">215</v>
-    <v t="r">216</v>
-    <v t="r">217</v>
-    <v t="r">218</v>
-    <v t="r">219</v>
-    <v t="r">220</v>
-    <v t="r">221</v>
-    <v t="r">222</v>
-    <v t="r">223</v>
-    <v t="r">224</v>
-    <v t="r">225</v>
-    <v t="r">226</v>
-    <v t="r">227</v>
-    <v t="r">228</v>
-    <v t="r">229</v>
-    <v t="r">230</v>
-    <v t="r">231</v>
-    <v t="r">232</v>
-    <v t="r">233</v>
-    <v t="r">234</v>
-    <v t="r">235</v>
-    <v t="r">236</v>
-    <v t="r">237</v>
-    <v t="r">238</v>
-    <v t="r">239</v>
-    <v t="r">240</v>
-    <v t="r">241</v>
-    <v t="r">242</v>
-    <v t="r">243</v>
-    <v t="r">244</v>
-    <v t="r">245</v>
-    <v t="r">246</v>
-    <v t="r">247</v>
-    <v t="r">248</v>
-    <v t="r">249</v>
-    <v t="r">250</v>
-    <v t="r">251</v>
-    <v t="r">252</v>
-    <v t="r">253</v>
-    <v t="r">254</v>
-    <v t="r">255</v>
-    <v t="r">256</v>
-    <v t="r">257</v>
-    <v t="r">258</v>
-    <v t="r">259</v>
-    <v t="r">260</v>
-    <v t="r">261</v>
-    <v t="r">262</v>
-    <v t="r">263</v>
-    <v t="r">264</v>
-    <v t="r">265</v>
-    <v t="r">266</v>
-    <v t="r">267</v>
-    <v t="r">268</v>
-    <v t="r">269</v>
-    <v t="r">270</v>
-    <v t="r">271</v>
-    <v t="r">272</v>
-    <v t="s">Metropolitan Borough of Knowsley</v>
-    <v t="r">273</v>
-    <v t="r">274</v>
-    <v t="s">Metropolitan Borough of Wirral</v>
-    <v t="r">275</v>
-    <v t="r">276</v>
-    <v t="r">277</v>
-    <v t="r">278</v>
-    <v t="r">279</v>
-    <v t="r">280</v>
-    <v t="r">281</v>
-    <v t="r">282</v>
-    <v t="r">283</v>
-    <v t="r">284</v>
-    <v t="r">285</v>
-    <v t="r">286</v>
-    <v t="r">287</v>
-    <v t="r">288</v>
-    <v t="r">289</v>
-    <v t="r">290</v>
-    <v t="r">291</v>
-    <v t="r">292</v>
-    <v t="r">293</v>
-    <v t="r">294</v>
-    <v t="r">295</v>
-    <v t="s">Outer Hebrides</v>
-    <v t="r">296</v>
-    <v t="r">297</v>
-    <v t="r">298</v>
-    <v t="r">299</v>
-    <v t="r">300</v>
-    <v t="r">301</v>
-    <v t="r">302</v>
-    <v t="r">303</v>
   </a>
-  <a r="3">
-    <v t="s">British Summer Time</v>
-    <v t="s">Greenwich Mean Time Zone</v>
-    <v t="s">Western European Time Zone</v>
+  <a r="6">
+    <v t="s">Newfoundland Time Zone</v>
+    <v t="s">Atlantic Time Zone</v>
+    <v t="s">Eastern Time Zone</v>
+    <v t="s">Central Time Zone</v>
+    <v t="s">Mountain Time Zone</v>
+    <v t="s">Pacific Time Zone</v>
   </a>
 </arrayData>
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="311">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="175">
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Public_domain</v>
     <v>Public domain</v>
@@ -1432,37 +1278,37 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>349.67</v>
-    <v>241.51</v>
-    <v>0.92630000000000001</v>
-    <v>3.4950000000000001</v>
-    <v>1.2643999999999999E-2</v>
+    <v>468.35</v>
+    <v>344.79</v>
+    <v>1.0183</v>
+    <v>2.2050000000000001</v>
+    <v>4.9090000000000002E-3</v>
     <v>USD</v>
-    <v>Microsoft Corporation is a technology company. The Company develops and supports a range of software products, services, devices, and solutions. The Company's segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Company's products include operating systems; cross-device productivity applications; server applications; business solution applications; desktop and server management tools; software development tools; and video games. It also designs, manufactures, and sells devices, including personal computers (PCs), tablets, gaming and entertainment consoles, other intelligent devices, and related accessories. It offers an array of services, including cloud-based solutions that provide customers with software, services, platforms, and content, and it provides solution support and consulting services. It markets and distributes its products and services through original equipment manufacturers, direct, and distributors and resellers.</v>
-    <v>181000</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. The Company’s segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services. This segment primarily comprises: Office Commercial, Office Consumer, LinkedIn, and Dynamics business solutions. The Intelligent Cloud segment consists of server products and cloud services, including Azure and other cloud services, SQL Server, Windows Server, Visual Studio, System Center, and related Client Access Licenses (CALs), and Nuance and GitHub; and Enterprise Services, including enterprise support services, industry solutions and Nuance professional services. The More Personal Computing segment primarily comprises Windows, Devices, Gaming, and search and news advertising.</v>
+    <v>228000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>281.12</v>
+    <v>One Microsoft Way, REDMOND, WA, 98052 US</v>
+    <v>453.9</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44771.622627673438</v>
+    <v>45791.752834305466</v>
     <v>4</v>
-    <v>276.63</v>
-    <v>2005875000000</v>
+    <v>448.23</v>
+    <v>3354641571680</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>277.76</v>
-    <v>28.661000000000001</v>
-    <v>276.41000000000003</v>
-    <v>279.90499999999997</v>
-    <v>7464000000</v>
+    <v>448.27</v>
+    <v>34.8812</v>
+    <v>449.14</v>
+    <v>451.34500000000003</v>
+    <v>7432544000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>9397872</v>
-    <v>26656566</v>
+    <v>10251434</v>
+    <v>25241135</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -2137,170 +1983,160 @@
     <v>mdp/vdpid/244</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xiur&amp;q=XNYS%3aMFGP&amp;form=skydnc</v>
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1zdcw&amp;q=XNAS%3aOTEX&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="10">
     <v>en-US</v>
-    <v>a1xiur</v>
+    <v>a1zdcw</v>
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>45</v>
-    <v>MICRO FOCUS INTERNATIONAL PLC (XNYS:MFGP)</v>
+    <v>Open Text Corporation (XNAS:OTEX)</v>
     <v>46</v>
     <v>47</v>
     <v>Finance</v>
     <v>5</v>
-    <v>6.58</v>
-    <v>3.03</v>
-    <v>2.0400999999999998</v>
-    <v>0.105</v>
-    <v>3.1531999999999998E-2</v>
+    <v>34.200000000000003</v>
+    <v>22.79</v>
+    <v>1.042</v>
+    <v>-0.22500000000000001</v>
+    <v>-7.9819999999999995E-3</v>
     <v>USD</v>
-    <v>Micro Focus International PLC is a United Kingdom-based global infrastructure software technology company. The Company serves a central role in core strategic and operational functions, such as testing, monitoring, delivery, analysis, engagement, security and compliance for its customers. It is focused to help organizations run and transform their business. Its solutions include: Enterprise DevOps, Hybrid information management (IT) management, Predictive Analytics, and Security, Risk &amp; Governance. Its product Portfolio contains approximately 300 products; both long-standing and software products that are designed to support customers and the products are grouped under five groups, such as Application Modernization &amp; Connectivity (AMC), Application Delivery Management (ADM), IT Operations Management (ITOM), Security and Information Management &amp; Governance (IM&amp;G).</v>
-    <v>11355</v>
-    <v>New York Stock Exchange</v>
-    <v>XNYS</v>
-    <v>XNYS</v>
-    <v>The Lawn, 22/30 Old Bath Road, NEWBURY, BERKSHIRE, RG14 1QN GB</v>
-    <v>3.4350000000000001</v>
+    <v>Open Text Corporation is a Canada-based information management company, which provides software and services. Its comprehensive Information Management platform and services provide secure and scalable solutions for global companies, small and medium-sized businesses (SMBs), governments and consumers around the world. It has a complete and integrated portfolio of information management solutions delivered at scale in the OpenText Cloud, enabling organizations master modern work, automate application delivery and modernization, and optimize their digital supply chains by bringing together content cloud, cybersecurity cloud, business network cloud, its operations management cloud, application automation cloud and analytics and artificial intelligence (AI) cloud. Its products include Information Management at scale, AI cloud, Business Network Cloud, Content Cloud, Cybersecurity Cloud, Developer Cloud, DevOps Cloud, Experience Cloud, IT Operation Cloud, Portfolio, and Products A-Z.</v>
+    <v>22900</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>275 Frank Tompa Drive, WATERLOO, ON, N2L 0A1 CA</v>
+    <v>28.2</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>44771.622458159378</v>
+    <v>45791.75353256875</v>
     <v>112</v>
-    <v>3.3650000000000002</v>
-    <v>1128839000</v>
-    <v>MICRO FOCUS INTERNATIONAL PLC</v>
-    <v>MICRO FOCUS INTERNATIONAL PLC</v>
-    <v>3.38</v>
-    <v>0</v>
-    <v>3.33</v>
-    <v>3.4350000000000001</v>
-    <v>335989900</v>
-    <v>MFGP</v>
-    <v>MICRO FOCUS INTERNATIONAL PLC (XNYS:MFGP)</v>
-    <v>50380</v>
-    <v>424508</v>
-    <v>2004</v>
+    <v>27.85</v>
+    <v>10179110000</v>
+    <v>Open Text Corporation</v>
+    <v>Open Text Corporation</v>
+    <v>28.13</v>
+    <v>11.414300000000001</v>
+    <v>28.19</v>
+    <v>27.965</v>
+    <v>259142400</v>
+    <v>OTEX</v>
+    <v>Open Text Corporation (XNAS:OTEX)</v>
+    <v>819015</v>
+    <v>1234965</v>
+    <v>2018</v>
   </rv>
   <rv s="4">
     <v>113</v>
   </rv>
   <rv s="5">
     <v>536870912</v>
-    <v>United Kingdom</v>
-    <v>b1a5155a-6bb2-4646-8f7c-3e6b3a53c831</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="6">
-    <fb>0.71714878141404492</fb>
+    <v>Canada</v>
+    <v>370ed614-32e1-4326-a356-dc0a7dd56aaa</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="6">
+    <fb>6.8918382450780802E-2</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>243610</fb>
+    <fb>9984670</fb>
     <v>36</v>
   </rv>
   <rv s="6">
-    <fb>148000</fb>
+    <fb>72000</fb>
     <v>36</v>
   </rv>
   <rv s="6">
-    <fb>11</fb>
+    <fb>10.1</fb>
     <v>37</v>
   </rv>
-  <rv s="6">
-    <fb>44</fb>
-    <v>38</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London</v>
-    <v>8e0ba7b6-4225-fa8a-6369-1b5294e602a5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="6">
-    <fb>379024.78700000001</fb>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Ottawa</v>
+    <v>3f2544d2-4937-9101-2f53-621199e253e5</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="6">
+    <fb>544894.19799999997</fb>
     <v>36</v>
   </rv>
   <rv s="6">
-    <fb>119.622711300166</fb>
+    <fb>116.75729822552999</fb>
     <v>39</v>
   </rv>
   <rv s="6">
-    <fb>1.7381046008651101E-2</fb>
+    <fb>1.9492690241159599E-2</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>5129.5277927901998</fb>
+    <fb>15588.4871464315</fb>
     <v>36</v>
   </rv>
   <rv s="6">
-    <fb>1.68</fb>
+    <fb>1.4987999999999999</fb>
     <v>37</v>
   </rv>
   <rv s="6">
-    <fb>0.130657628239573</fb>
+    <fb>0.38161546668997998</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>80.351771267255202</fb>
+    <fb>74.089062024805997</fb>
     <v>40</v>
   </rv>
   <rv s="6">
-    <fb>1.46</fb>
+    <fb>0.81</fb>
     <v>41</v>
   </rv>
   <rv s="6">
-    <fb>2827113184695.5801</fb>
+    <fb>1736425629519.96</fb>
     <v>42</v>
   </rv>
   <rv s="6">
-    <fb>1.0115456</fb>
+    <fb>1.0094368</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.59995569999999998</fb>
+    <fb>0.68922510000000003</fb>
     <v>35</v>
   </rv>
-  <rv s="7">
+  <rv s="11">
     <v>1</v>
     <v>33</v>
-    <v>57</v>
+    <v>49</v>
+    <v>7</v>
     <v>0</v>
-    <v>Image of United Kingdom</v>
-  </rv>
-  <rv s="6">
-    <fb>3.6</fb>
+    <v>Image of Canada</v>
+  </rv>
+  <rv s="6">
+    <fb>4.3</fb>
     <v>40</v>
   </rv>
   <rv s="5">
+    <v>536870912</v>
+    <v>Toronto</v>
+    <v>e9c1d78f-effd-4cbf-af56-ce709763b200</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
     <v>805306368</v>
-    <v>Boris Johnson (Prime Minister)</v>
-    <v>fe217755-2d46-1c61-dded-740ff4500899</v>
+    <v>Charles III (Monarch)</v>
+    <v>afc6f6a9-5b55-9178-3e6f-2c8b6d16ee9c</v>
     <v>en-US</v>
     <v>Generic</v>
   </rv>
   <rv s="5">
     <v>805306368</v>
-    <v>Justine Greening (Minister)</v>
-    <v>7aff4253-0f04-ea8e-9418-a9ef69475621</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="5">
-    <v>805306368</v>
-    <v>Nadhim Zahawi (Minister)</v>
-    <v>394346ee-f3b1-c53c-2bcd-8d22bdee8814</v>
-    <v>en-US</v>
-    <v>Generic</v>
-  </rv>
-  <rv s="5">
-    <v>805306368</v>
-    <v>Natalie Evans, Baroness Evans of Bowes Park (Minister)</v>
-    <v>fcf767e2-c1da-d731-e0f0-696a3bd436b5</v>
+    <v>Justin Trudeau (Prime minister)</v>
+    <v>d37aba31-28d1-b943-f0c6-dbddeb460528</v>
     <v>en-US</v>
     <v>Generic</v>
   </rv>
@@ -2308,1098 +2144,160 @@
     <v>4</v>
   </rv>
   <rv s="0">
-    <v>https://www.bing.com/search?q=united+kingdom&amp;form=skydnc</v>
+    <v>https://www.bing.com/search?q=canada+country&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
   </rv>
   <rv s="6">
-    <fb>81.256097560975604</fb>
+    <fb>81.948780487804896</fb>
     <v>40</v>
   </rv>
   <rv s="6">
-    <fb>1868152970000</fb>
+    <fb>1937902710000</fb>
     <v>42</v>
   </rv>
   <rv s="6">
-    <fb>7</fb>
+    <fb>10</fb>
     <v>40</v>
   </rv>
   <rv s="6">
-    <fb>10.130000000000001</fb>
+    <fb>9.51</fb>
     <v>41</v>
   </rv>
   <rv s="8">
     <v>5</v>
   </rv>
   <rv s="6">
-    <fb>0.14794489889999998</fb>
+    <fb>0.1458492763</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>2.8117000000000001</fb>
+    <fb>2.6101999999999999</fb>
     <v>37</v>
   </rv>
   <rv s="6">
-    <fb>66834405</fb>
+    <fb>38929902</fb>
     <v>36</v>
   </rv>
   <rv s="6">
-    <fb>0.22500000000000001</fb>
+    <fb>0.23300000000000001</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.26800000000000002</fb>
+    <fb>0.251</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.42100000000000004</fb>
+    <fb>0.40600000000000003</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>2.7999999999999997E-2</fb>
+    <fb>2.4E-2</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>7.0999999999999994E-2</fb>
+    <fb>6.7000000000000004E-2</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.11900000000000001</fb>
+    <fb>0.124</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.16399999999999998</fb>
+    <fb>0.17</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>0.62773998260497998</fb>
+    <fb>0.65070999145507802</fb>
     <v>35</v>
   </rv>
   <rv s="5">
     <v>536870912</v>
-    <v>Devon</v>
-    <v>5ad1bd45-b1d3-1dd7-13e3-f0ecea97ece7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Somerset</v>
-    <v>2b333df9-032c-c9b1-0d74-88ea8c5befbd</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Lancashire</v>
-    <v>d2ddd91b-d3db-c97c-d4e1-b66d033659fa</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>England</v>
-    <v>280d39e8-7217-6863-6980-a8c20c211c89</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Liverpool</v>
-    <v>a5642e81-20ab-a561-17cc-52a63926b210</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Newcastle upon Tyne</v>
-    <v>e1ab16e3-5050-dafb-7e90-7ceb4efd055d</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>City of London</v>
-    <v>3513d611-e6ca-408d-8d00-c93a427d32ad</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Stoke-on-Trent</v>
-    <v>2efa6384-eb20-dbf0-d19a-2c63f3b239fb</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Cornwall</v>
-    <v>7ce7e82d-6d0f-f7b6-daf4-9018d403a859</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Derbyshire</v>
-    <v>a3be3ce0-6a5c-7632-5ef1-6034834ffe0e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Worcestershire</v>
-    <v>92b6b35e-17f8-7d50-a89b-650c809a2158</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Norfolk</v>
-    <v>1f7d5120-8b19-7582-e7d0-2351c715f854</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Lincolnshire</v>
-    <v>1b1b62b6-be46-b598-310b-b10fe8c992b8</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Northamptonshire</v>
-    <v>6b5ff743-48aa-7f30-4bfe-97eeede8e6fa</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Surrey</v>
-    <v>4e00ff19-370b-4752-b12d-9b5088a81c75</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Shropshire</v>
-    <v>620367d1-f8ad-2237-2ba3-9bd995d6cb3e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Isle of Wight</v>
-    <v>95d8ced0-437b-28ff-5329-8fbf91940733</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Buckinghamshire</v>
-    <v>ff464c2a-d8cf-cd5b-431b-50f9494b808a</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Wiltshire</v>
-    <v>4ebe79fa-f77b-5216-7ef9-f8ea04679349</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Coventry</v>
-    <v>452272b4-d4d5-224d-223b-58b995e82185</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Warrington</v>
-    <v>4079f4c4-ee00-1666-ed95-342e8d1634e2</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Suffolk</v>
-    <v>b891db46-5bbb-53eb-6a27-28ae58d995e9</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Bournemouth</v>
-    <v>798e72ae-7e6b-eaba-0080-5e2b222ddfb7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Blackpool</v>
-    <v>a2968ee5-f872-4ab4-6479-95727f9bc6a7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>County Durham</v>
-    <v>326adeba-4a25-fb10-67b8-480c6d7f4b2d</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Cumbria</v>
-    <v>a192dc6e-69b1-5d04-741f-67720ce0ebfc</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Dorset</v>
-    <v>248ebd80-8904-8a43-be23-3cd065a30350</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>West Sussex</v>
-    <v>6fef3193-51df-c781-5d99-8b60839e1cf9</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Hampshire</v>
-    <v>2d3a57b7-ee5f-c34a-1ce7-09a573697693</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Scotland</v>
-    <v>a0377d96-1a18-f843-65ad-adcbc4acdc69</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Newport</v>
-    <v>eb987e3b-b3c7-4072-08fa-b6ba938b35e1</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>York</v>
-    <v>a60ce14b-6919-f15c-15bd-5d5494ff8598</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Derby</v>
-    <v>137d5451-9100-4ac6-b03e-fbc72ac322f4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Reading</v>
-    <v>281a95af-ccff-e632-516d-0f60d9882cfd</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Gloucestershire</v>
-    <v>eab8d5d9-01a7-f0db-d230-ec907f822254</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Nottingham</v>
-    <v>fd1f499f-6103-6a87-cddd-2086efabf88f</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Nottinghamshire</v>
-    <v>474ecb67-f819-ecef-a259-d24741044ebd</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Sheffield</v>
-    <v>41dbe832-f699-1fd7-e3b3-fbdcbd0167eb</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Leicestershire</v>
-    <v>4b2d786f-4d40-dd9a-2c29-31c1db8a6dd3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Birmingham</v>
-    <v>aaac0a14-911d-49c8-ac97-51d9f9100ad7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Staffordshire</v>
-    <v>8af62e75-98e5-6987-9d37-3061b70d0365</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Isles of Scilly</v>
-    <v>cbd82567-ce28-513c-27d4-0452c5504f8b</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Oxfordshire</v>
-    <v>1eda598d-62bc-9a62-5694-ee4472f8dcf5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Kent</v>
-    <v>254f7086-5bb1-bdbf-8511-000e19ec575a</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Slough</v>
-    <v>abfe29f2-7624-f440-e5c1-83347196e0b5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Warwickshire</v>
-    <v>f1173647-228f-1554-f0d8-39e325d478af</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Northumberland</v>
-    <v>86a3fee3-ba4c-f565-1ce4-449912831e53</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>East Sussex</v>
-    <v>4a646622-0fa1-ec75-7268-69cce45dbd22</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Manchester</v>
-    <v>35dddbb1-7bb3-4072-bfd5-f9e6570713b0</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>North Yorkshire</v>
-    <v>fb1d8fdd-e4d5-f9a0-5f8c-1a03f3c7dad4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Wales</v>
-    <v>b51b24e1-6afb-d525-d360-f2eb5bf3410b</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Plymouth</v>
-    <v>a3e2c1e6-1f92-c845-835d-3b78083edf28</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Kingston upon Hull</v>
-    <v>c2d2e2f2-1587-bacd-a08a-017a722bf4f3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Bristol</v>
-    <v>3a2b5f36-3aab-be4b-07ef-da515a676e60</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Leicester</v>
-    <v>88af3d23-ab3c-0468-1391-254a59804943</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Wolverhampton</v>
-    <v>a4e729ad-f9ef-fbc2-5496-659379e68cc8</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Southampton</v>
-    <v>c459ea11-71e5-3eae-977c-7a7ac56e054d</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Portsmouth</v>
-    <v>337425e1-03f7-5cdc-cf78-5fb9639fcc32</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Luton</v>
-    <v>f00d5748-ef3f-0016-e774-64ef25551a8e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Peterborough</v>
-    <v>62489622-eccf-7222-2856-6fff39f80df8</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Poole</v>
-    <v>cc1b9a88-ec7e-57fa-3120-f797177b9ece</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Richmond upon Thames</v>
-    <v>330d56ea-b71b-f6c8-32ac-1c0f219611a4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Middlesbrough</v>
-    <v>8b36aad5-43a9-73f0-207c-ad3765927011</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Hertfordshire</v>
-    <v>070f9acc-7c22-7b21-6d9a-6d46b9aa876a</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Cambridgeshire</v>
-    <v>bc02c14b-0035-fc4c-411f-168edbf62536</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Essex</v>
-    <v>5c034f63-79be-7ab6-5ae6-b57d985a0e50</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>West Berkshire</v>
-    <v>24ab4528-6d4a-2364-a87a-5ce1744b2fd9</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Herefordshire</v>
-    <v>f586d43a-d582-5c49-952e-b296001cdbe1</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Rutland</v>
-    <v>39bb7744-90c5-e3fa-c4f7-7e89bf42f3a9</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Edinburgh</v>
-    <v>286af946-edea-5f33-df53-4164821c69da</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Glasgow</v>
-    <v>da2548ee-1b26-f939-06b4-2fae57e075e7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Dundee</v>
-    <v>26e6ea64-8197-1c44-a767-91d93e3e7e60</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Cardiff</v>
-    <v>cdfaa940-1a8c-2522-2bf5-e09831059c8c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Gwynedd</v>
-    <v>4696c15a-9117-8701-d989-35980505aaba</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Northern Ireland</v>
-    <v>e4b8bc44-385c-e87b-bb7d-b32328f53502</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Aberdeenshire</v>
-    <v>b81a7eb6-c957-282c-9953-e0c1798b2eb6</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Aberdeen</v>
-    <v>e99cc5fc-69e5-a8a6-e0bb-bade5ce6f2e7</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>West Lothian</v>
-    <v>c3c56189-7090-194e-859f-d3fbb1781795</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Merthyr Tydfil</v>
-    <v>067b1107-205b-0f64-187e-94c55c7c82a3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Belfast</v>
-    <v>066bd7c2-af77-6ff0-3347-a0c3ed0a34f4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Wrexham County Borough</v>
-    <v>3c28a426-f3d1-4876-8049-750e76d56950</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Swansea</v>
-    <v>ca0c6bd0-fcf5-4af4-618e-0dcc81e904f1</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Fife</v>
-    <v>54a585e4-03af-cb0b-6dc0-35d8c58407f5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Midlothian</v>
-    <v>9c548132-3419-5bc6-56ca-e1373dcfe23c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>East Lothian</v>
-    <v>0fbdbf9c-787c-9fa5-4e8a-acfd4aaff046</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Dumfries and Galloway</v>
-    <v>166abd1b-5753-3637-40eb-61aaf9738a0b</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Carmarthenshire</v>
-    <v>1d3b8c9e-4e53-0b68-e9b4-8eddd9ffd0bc</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Flintshire</v>
-    <v>154b78b5-e707-2db6-6f66-f6a938690d05</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Anglesey</v>
-    <v>5207525e-c76a-4aec-33af-64384c5a6e0c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Pembrokeshire</v>
-    <v>4925e50e-8717-4f5f-2bfd-0bfe0c525744</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Powys</v>
-    <v>5d9c5f00-6996-2dfd-d223-c8de2ee5eca5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Vale of Glamorgan</v>
-    <v>94cdbb31-cc8e-b56e-7be6-54e42315cdbf</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>City of Westminster</v>
-    <v>63ce8294-e571-7282-75aa-205efd425a22</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Ceredigion</v>
-    <v>7b38a8a3-f389-b19c-ae91-3d0d4ca3273b</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Royal Borough of Greenwich</v>
-    <v>69a30182-b3c0-474a-ff80-5e14c2516e95</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Orkney</v>
-    <v>041d9a1c-58a6-ca2b-d149-0546a069bef4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Southend-on-Sea</v>
-    <v>7da0961f-3c65-9262-1fa3-d36b06c3c72c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Trafford</v>
-    <v>88dd02ca-7d6b-61b2-cbec-c00dae5fc203</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Camden</v>
-    <v>427b51f0-5efc-c4ce-8007-d7db16792348</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>City of Salford</v>
-    <v>0d97218d-4223-6a9d-b74c-6f674d3df8ad</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Ealing</v>
-    <v>77aca5f9-73b2-ac32-7da9-829325532b67</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Shetland</v>
-    <v>69917bcc-72c4-054c-7b8b-59e2e6e6d054</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Kirklees</v>
-    <v>7fdc5fe4-3ddc-2d3f-0ba1-f1c30887c0c4</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Hackney</v>
-    <v>76c7413e-fd75-9503-c844-f948f920bf50</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Royal Borough of Kensington and Chelsea</v>
-    <v>c8bf96b0-bbe9-7147-b91d-e4f05eeeaa4c</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Sandwell</v>
-    <v>7578a257-fbbb-a33c-1ae8-09f08c610682</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Caerphilly County Borough</v>
-    <v>6d897151-929a-c376-fe6c-d2ecbf6d0096</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>City of Bradford</v>
-    <v>2fb792af-f38f-dc28-e920-682ea0f4dd1e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Royal Borough of Kingston upon Thames</v>
-    <v>a7e7bf4f-aaf6-b38c-c6f1-3cece81a7c73</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Calderdale</v>
-    <v>5924493e-e100-57de-1e2c-616b7f16fb75</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Barking and Dagenham</v>
-    <v>2c34f629-9085-faea-d501-72c74db2e99e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Croydon</v>
-    <v>a9d4124c-1c82-3830-538a-6e730fd78ca2</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Newham</v>
-    <v>6f66bcdb-5f1f-dc38-5bcd-6cf54619476b</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Hammersmith and Fulham</v>
-    <v>51eedf66-5a54-e2da-0786-904cd2ae5e01</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Barnet</v>
-    <v>1415c296-3271-e593-e550-6baa54d0be91</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Brighton and Hove</v>
-    <v>297cae4c-741d-4091-0d17-7a0cb4dfc072</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Wandsworth</v>
-    <v>53aa5bbb-0a68-ec05-93a9-8fa5ae4c0035</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Enfield</v>
-    <v>7c4de49e-3914-6146-453f-83960bc60157</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Brent</v>
-    <v>87fcc92f-bb25-a5db-2917-0297b7cc7006</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Redbridge</v>
-    <v>25ce92d8-1ab5-04ff-f1eb-644dc5a2b326</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Lambeth</v>
-    <v>601c1f89-26d4-d4e8-5de2-23643ae45707</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Islington</v>
-    <v>fffc642f-7ca5-55b3-c338-3cba1b932d55</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Hillingdon</v>
-    <v>adce1ab7-1b39-eea4-bbdd-78e6be2aaa2e</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Tower Hamlets</v>
-    <v>b55b7e9b-cc89-eb16-0ee2-ef35b73001a0</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Hounslow</v>
-    <v>a393f5fb-5fb3-19ff-52cf-267a06915d2f</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Merton</v>
-    <v>8e4ee7a7-2b94-344c-b740-c768658bb561</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Southwark</v>
-    <v>6ff0cd7b-6e7e-3ceb-7dad-6e0d2c1da0c3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Harrow</v>
-    <v>0365592b-9270-e980-6139-aa2a4615cdb3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Waltham Forest</v>
-    <v>7da02390-10d4-e36c-314f-ea514faa62e6</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Havering</v>
-    <v>b14e42eb-0997-fe1c-4049-b8f437a869de</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Haringey</v>
-    <v>942466ed-2570-73ac-4497-51fccd9667ac</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Denbighshire</v>
-    <v>d9b0986c-3824-a9c1-8788-f8c20d153ff5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Lewisham</v>
-    <v>105eeb6e-338a-1994-b9e3-fa5b63eb79fd</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Monmouthshire</v>
-    <v>81bc2422-be5c-4cd9-8614-3b9b226c7154</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Bromley</v>
-    <v>5fbe984e-fdf2-c1a4-c9e0-c9ae9a1b1bfa</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Torbay</v>
-    <v>20f58686-8f00-84da-c4d0-61544ec1c0b3</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Bexley</v>
-    <v>37fc0a51-9932-09b4-2e6d-28e52a5abc35</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>City of Wakefield</v>
-    <v>fda1d0a0-3c3d-b6d2-4e49-217176b79940</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Borough of Halton</v>
-    <v>aba165c7-6f69-a541-bd58-9952c853e295</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>North Somerset</v>
-    <v>e3678f85-61b8-0810-8c53-e58bdb733dec</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Tameside</v>
-    <v>4d704dba-d053-5372-9d1b-631f69f25246</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>North Tyneside</v>
-    <v>36ca8e86-236d-306d-dfc1-621780c43474</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Medway</v>
-    <v>3ade3b17-52c4-4392-59ad-874fde4b7de5</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>London Borough of Sutton</v>
-    <v>c1460554-820a-05a1-aac2-342042bac143</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Bath and North East Somerset</v>
-    <v>1ea8797d-5e0d-8b8d-d63e-c6cbbd49f9d2</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>Metropolitan Borough of Stockport</v>
-    <v>a0ddc244-2a33-2738-d6e7-20cabc5c8b14</v>
-    <v>en-US</v>
-    <v>Map</v>
-  </rv>
-  <rv s="5">
-    <v>536870912</v>
-    <v>North East Lincolnshire</v>
-    <v>87656709-108c-e3ba-f3f5-aac83525778e</v>
+    <v>Ontario</v>
+    <v>070ad921-224a-9ed5-6fe1-8eab57b4b2e7</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Quebec</v>
+    <v>32da1fe8-6bb5-f40e-e008-82becf7ef390</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Nova Scotia</v>
+    <v>baa4aedd-bbb6-989e-cba4-ec2c9bdd906a</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>New Brunswick</v>
+    <v>ed967bed-da27-9206-2407-d4e698015192</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Manitoba</v>
+    <v>21c9c883-dcc4-1490-a815-79c6eb525369</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Newfoundland and Labrador</v>
+    <v>895215e2-2c65-6494-fa6a-1f441a39ac4f</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Prince Edward Island</v>
+    <v>4e4aadcb-4928-0762-e307-bc01ba8f3dfb</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Saskatchewan</v>
+    <v>ec7108bb-bd34-c969-f3f2-2a9eed70102e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Alberta</v>
+    <v>ac4b7d59-c4be-889f-9a45-7e7c524794ec</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Yukon</v>
+    <v>68d0a1b9-92a8-857c-53f4-9150cd050ece</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Northwest Territories</v>
+    <v>2e2284ce-2cc1-0b16-10e6-0783ada7c95b</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>Nunavut</v>
+    <v>5220a5b2-1244-23fe-9851-d4b0373ac92e</v>
+    <v>en-US</v>
+    <v>Map</v>
+  </rv>
+  <rv s="5">
+    <v>536870912</v>
+    <v>British Columbia</v>
+    <v>32a8fd1c-cd9d-0da9-35fb-f952ed824d4f</v>
     <v>en-US</v>
     <v>Map</v>
   </rv>
@@ -3407,50 +2305,51 @@
     <v>6</v>
   </rv>
   <rv s="6">
-    <fb>0.255052921600669</fb>
+    <fb>0.12844017475747799</fb>
     <v>35</v>
   </rv>
   <rv s="8">
     <v>7</v>
   </rv>
   <rv s="6">
-    <fb>0.30599999999999999</fb>
+    <fb>0.245</fb>
     <v>35</v>
   </rv>
   <rv s="6">
-    <fb>3.8510000705719E-2</fb>
+    <fb>5.5640001296997095E-2</fb>
     <v>44</v>
   </rv>
   <rv s="6">
-    <fb>55908316</fb>
+    <fb>30628482</fb>
     <v>36</v>
   </rv>
   <rv s="9">
     <v>#VALUE!</v>
     <v>en-US</v>
-    <v>b1a5155a-6bb2-4646-8f7c-3e6b3a53c831</v>
+    <v>370ed614-32e1-4326-a356-dc0a7dd56aaa</v>
     <v>536870912</v>
     <v>1</v>
+    <v>52</v>
+    <v>30</v>
+    <v>Canada</v>
+    <v>53</v>
+    <v>54</v>
+    <v>Map</v>
+    <v>33</v>
     <v>55</v>
-    <v>30</v>
-    <v>United Kingdom</v>
-    <v>31</v>
-    <v>32</v>
-    <v>Map</v>
-    <v>33</v>
-    <v>56</v>
-    <v>GB</v>
+    <v>CA</v>
     <v>116</v>
     <v>117</v>
     <v>118</v>
     <v>119</v>
+    <v>12</v>
     <v>120</v>
     <v>121</v>
     <v>122</v>
     <v>123</v>
+    <v>CAD</v>
+    <v>Canada is a country in North America. Its ten provinces and three territories extend from the Atlantic Ocean to the Pacific Ocean and northward into the Arctic Ocean, making it the world's second-largest country by total area, with the world's ...</v>
     <v>124</v>
-    <v>GBP</v>
-    <v>The United Kingdom of Great Britain and Northern Ireland, commonly known as the United Kingdom or Britain, is a sovereign country in Europe, off the north-western coast of the continental mainland. It comprises England, Wales, Scotland, and Northern Ireland. The United Kingdom includes the island of Great Britain, the north-eastern part of the island of Ireland, and many smaller islands within the British Isles. Northern Ireland shares a land border with the Republic of Ireland; otherwise, the United Kingdom is surrounded by the Atlantic Ocean, the North Sea, the English Channel, the Celtic Sea and the Irish Sea. The total area of the United Kingdom is 93,628 square miles, with an estimated 2020 population of more than 67 million people.</v>
     <v>125</v>
     <v>126</v>
     <v>127</v>
@@ -3461,17 +2360,18 @@
     <v>132</v>
     <v>133</v>
     <v>134</v>
-    <v>121</v>
+    <v>137</v>
+    <v>138</v>
     <v>139</v>
     <v>140</v>
     <v>141</v>
     <v>142</v>
+    <v>Canada</v>
+    <v>O Canada</v>
     <v>143</v>
+    <v>Canada</v>
     <v>144</v>
-    <v>United Kingdom</v>
-    <v>God Save the Queen</v>
     <v>145</v>
-    <v>United Kingdom of Great Britain and Northern Ireland</v>
     <v>146</v>
     <v>147</v>
     <v>148</v>
@@ -3481,22 +2381,20 @@
     <v>152</v>
     <v>153</v>
     <v>154</v>
-    <v>155</v>
-    <v>156</v>
-    <v>304</v>
-    <v>305</v>
-    <v>306</v>
-    <v>307</v>
-    <v>308</v>
-    <v>United Kingdom</v>
-    <v>309</v>
-    <v>mdp/vdpid/242</v>
+    <v>168</v>
+    <v>169</v>
+    <v>170</v>
+    <v>171</v>
+    <v>172</v>
+    <v>Canada</v>
+    <v>173</v>
+    <v>mdp/vdpid/39</v>
   </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="11">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="12">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -3692,6 +2590,14 @@
     <k n="Volume average"/>
     <k n="Year incorporated"/>
   </s>
+  <s t="_webimage">
+    <k n="WebImageIdentifier" t="i"/>
+    <k n="_Provider" t="spb"/>
+    <k n="Attribution" t="spb"/>
+    <k n="CalcOrigin" t="i"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="Text" t="s"/>
+  </s>
 </rvStructures>
 </file>
 
@@ -3854,7 +2760,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="58">
+  <spbData count="56">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -4198,7 +3104,7 @@
       <v>5</v>
       <v>5</v>
       <v>6</v>
-      <v>7</v>
+      <v>14</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -4211,97 +3117,89 @@
     <spb s="7">
       <v xml:space="preserve">Wikipedia	Cia	travel.state.gov	</v>
       <v xml:space="preserve">CC-BY-SA			</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	https://www.cia.gov/library/publications/the-world-factbook/geos/uk.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/UnitedKingdom.html?wcmmode=disabled	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Canada	https://www.cia.gov/library/publications/the-world-factbook/geos/ca.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/Canada.html	</v>
       <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/			</v>
+    </spb>
+    <spb s="7">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC BY-SA 3.0	</v>
+      <v xml:space="preserve">https://en.wikipedia.org/wiki/Canada	</v>
+      <v xml:space="preserve">https://creativecommons.org/licenses/by-sa/3.0	</v>
+    </spb>
+    <spb s="7">
+      <v xml:space="preserve">Wikipedia	</v>
+      <v xml:space="preserve">CC-BY-SA	</v>
+      <v xml:space="preserve">http://en.wikipedia.org/wiki/Canada	</v>
+      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="7">
       <v xml:space="preserve">Cia	</v>
       <v xml:space="preserve">	</v>
-      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/uk.html?Transportation	</v>
+      <v xml:space="preserve">https://www.cia.gov/library/publications/the-world-factbook/geos/ca.html?Transportation	</v>
       <v xml:space="preserve">	</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	Cia	Wikipedia	travel.state.gov	ons.gov.uk	Sec	</v>
-      <v xml:space="preserve">CC-BY-SA		CC-BY-SA				</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	https://www.cia.gov/library/publications/the-world-factbook/geos/uk.html?Transportation	https://en.wikipedia.org/wiki/United_Kingdom	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/UnitedKingdom.html?wcmmode=disabled	https://www.ons.gov.uk/file?uri=/peoplepopulationandcommunity/populationandmigration/populationestimates/datasets/populationestimatesforukenglandandwalesscotlandandnorthernireland/mid2012tomid2016/ukmidyearestimates20122016.xls	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001924953	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/		http://creativecommons.org/licenses/by-sa/3.0/				</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">CC-BY-SA	</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	Cia	</v>
-      <v xml:space="preserve">CC-BY-SA		</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	https://www.cia.gov/library/publications/the-world-factbook/geos/uk.html?Transportation	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/		</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	Wikipedia	Cia	travel.state.gov	Sec	</v>
-      <v xml:space="preserve">CC-BY-SA	CC-BY-SA				</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	http://fr.wikipedia.org/wiki/Royaume-Uni	https://www.cia.gov/library/publications/the-world-factbook/geos/uk.html?Transportation	https://travel.state.gov/content/travel/en/international-travel/International-Travel-Country-Information-Pages/UnitedKingdom.html?wcmmode=disabled	https://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=0001924953	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/				</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	Wikipedia	</v>
-      <v xml:space="preserve">CC-BY-SA	CC-BY-SA	</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	http://km.wikipedia.org/wiki/ចក្រភពអង់គ្លេស	</v>
-      <v xml:space="preserve">http://creativecommons.org/licenses/by-sa/3.0/	http://creativecommons.org/licenses/by-sa/3.0/	</v>
     </spb>
     <spb s="16">
       <v>7</v>
       <v>48</v>
       <v>49</v>
+      <v>49</v>
+      <v>11</v>
+      <v>49</v>
+      <v>49</v>
+      <v>49</v>
       <v>50</v>
-      <v>11</v>
-      <v>12</v>
+      <v>49</v>
+      <v>49</v>
       <v>50</v>
+      <v>49</v>
+      <v>49</v>
       <v>51</v>
+      <v>16</v>
+      <v>48</v>
       <v>51</v>
-      <v>52</v>
-      <v>53</v>
+      <v>18</v>
+      <v>49</v>
+      <v>51</v>
+      <v>20</v>
+      <v>21</v>
+      <v>22</v>
       <v>51</v>
       <v>51</v>
       <v>49</v>
-      <v>16</v>
-      <v>48</v>
-      <v>49</v>
-      <v>18</v>
-      <v>54</v>
-      <v>49</v>
-      <v>20</v>
-      <v>21</v>
-      <v>22</v>
-      <v>49</v>
-      <v>49</v>
-      <v>53</v>
-      <v>49</v>
+      <v>51</v>
       <v>24</v>
       <v>25</v>
       <v>26</v>
       <v>27</v>
-      <v>49</v>
+      <v>51</v>
       <v>48</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
-      <v>49</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
+      <v>51</v>
       <v>28</v>
+    </spb>
+    <spb s="17">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="18">
+      <v>3</v>
+      <v>4</v>
     </spb>
     <spb s="12">
       <v>2019</v>
       <v>2019</v>
       <v>square km</v>
       <v>per thousand (2018)</v>
-      <v>2019</v>
+      <v>2022</v>
       <v>2019</v>
       <v>2018</v>
       <v>per liter (2016)</v>
@@ -4314,36 +3212,30 @@
       <v>2016</v>
       <v>2019</v>
       <v>2016</v>
-      <v>2018</v>
+      <v>2017</v>
       <v>kilotons per year (2016)</v>
       <v>deaths per 100,000 (2017)</v>
       <v>kWh (2014)</v>
       <v>2015</v>
-      <v>2008</v>
-      <v>2016</v>
-      <v>2016</v>
-      <v>2016</v>
-      <v>2016</v>
-      <v>2016</v>
+      <v>2018</v>
+      <v>2013</v>
+      <v>2013</v>
+      <v>2013</v>
+      <v>2013</v>
+      <v>2013</v>
       <v>2015</v>
-      <v>2016</v>
-      <v>2016</v>
+      <v>2013</v>
+      <v>2013</v>
       <v>2017</v>
       <v>2017</v>
       <v>2019</v>
-    </spb>
-    <spb s="7">
-      <v xml:space="preserve">Wikipedia	</v>
-      <v xml:space="preserve">Public domain	</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/United_Kingdom	</v>
-      <v xml:space="preserve">http://en.wikipedia.org/wiki/Public_domain	</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="17">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="19">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -4545,6 +3437,7 @@
     <k n="Largest city" t="spb"/>
     <k n="Minimum wage" t="spb"/>
     <k n="Currency code" t="spb"/>
+    <k n="Official name" t="spb"/>
     <k n="CPI Change (%)" t="spb"/>
     <k n="Fertility rate" t="spb"/>
     <k n="Gasoline price" t="spb"/>
@@ -4576,6 +3469,15 @@
     <k n="Gross primary education enrollment (%)" t="spb"/>
     <k n="Gross tertiary education enrollment (%)" t="spb"/>
     <k n="Population: Labor force participation (%)" t="spb"/>
+  </s>
+  <s>
+    <k n="UniqueName" t="spb"/>
+    <k n="VDPID/VSID" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Name" t="i"/>
+    <k n="Image" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -4646,6 +3548,9 @@
     </rSty>
     <rSty dxfid="1">
       <rpv i="0">0.0</rpv>
+    </rSty>
+    <rSty dxfid="1">
+      <rpv i="0">_-[$$-en-CA]* #,##0_-;-[$$-en-CA]* #,##0_-;_-[$$-en-CA]* "-"_-;_-@_-</rpv>
     </rSty>
   </richStyles>
 </richStyleSheet>
@@ -4916,144 +3821,144 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="178.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+    <row r="5" spans="1:9" ht="178.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
-    <row r="6" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="28"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="38" t="s">
+    <row r="7" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="28"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="21"/>
     </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="28"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="21"/>
     </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="38" t="s">
+    <row r="9" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="28"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="21"/>
     </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="28"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="21"/>
     </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="38" t="s">
+    <row r="11" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="28"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="21"/>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="28"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="21"/>
     </row>
     <row r="13" spans="1:9" ht="52.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:9" ht="52.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5071,7 +3976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E23CBD9-D91C-3441-9395-DF73B0537417}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5087,10 +3992,10 @@
     <row r="2" spans="1:8" ht="184.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
@@ -5100,106 +4005,106 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" s="5" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
+    <row r="5" spans="1:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="39" t="s">
+    <row r="6" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="41" t="s">
+    <row r="8" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="40" t="s">
+    <row r="9" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+    <row r="10" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="41" t="s">
+    <row r="11" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="41" t="s">
+    <row r="12" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
     </row>
-    <row r="13" spans="1:8" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+    <row r="13" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="52.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5231,10 +4136,10 @@
     <col min="2" max="2" width="25.6640625" style="3" customWidth="1"/>
     <col min="3" max="3" width="10" style="3" customWidth="1"/>
     <col min="4" max="4" width="3.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="28.6640625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="3.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="3.33203125" style="3" customWidth="1"/>
     <col min="7" max="7" width="28.6640625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="3.33203125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" style="3" customWidth="1"/>
     <col min="9" max="9" width="28.6640625" style="3" customWidth="1"/>
     <col min="10" max="10" width="3.33203125" style="3" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" style="3" customWidth="1"/>
@@ -5244,176 +4149,174 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="43"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="45" t="s">
+      <c r="B2" s="36"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
     </row>
     <row r="3" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="43"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="49.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="36" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="30"/>
+      <c r="I4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="36" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="43"/>
-      <c r="C5" s="38" t="s">
+    <row r="5" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36"/>
+      <c r="C5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="6"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="38" t="s">
+    <row r="6" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="36"/>
+      <c r="C6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="32" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="6"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="43"/>
-      <c r="C7" s="38" t="s">
+    <row r="7" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="36"/>
+      <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="32" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="6"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="5"/>
     </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
-      <c r="C8" s="38" t="s">
+    <row r="8" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="36"/>
+      <c r="C8" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="6"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="38" t="s">
+    <row r="9" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="36"/>
+      <c r="C9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="43"/>
-      <c r="C10" s="38" t="s">
+    <row r="10" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="36"/>
+      <c r="C10" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="5"/>
     </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
-      <c r="C11" s="38" t="s">
+    <row r="11" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="36"/>
+      <c r="C11" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:12" ht="52.95" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:12" ht="52.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="10"/>
-    </row>
+    <row r="13" spans="1:12" ht="52.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E2:K2"/>
@@ -5432,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7ECC068-CA11-4B4A-A0E0-0ABE082B5CF7}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5473,21 +4376,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5712,14 +4615,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D2CAAB-F5D6-4BB2-AED8-BE3D49D1FE65}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C85E038-C052-45B2-ACD4-FEF968D9B354}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -5732,6 +4627,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3D2CAAB-F5D6-4BB2-AED8-BE3D49D1FE65}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
